--- a/docs/excel/THundredWar.xlsx
+++ b/docs/excel/THundredWar.xlsx
@@ -235,7 +235,7 @@
     <t>ListSpliter: ";"</t>
   </si>
   <si>
-    <t>float64</t>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +678,7 @@
   <dimension ref="A1:W225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/THundredWar.xlsx
+++ b/docs/excel/THundredWar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -238,12 +238,81 @@
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入下限</t>
+    </r>
+  </si>
+  <si>
+    <t>最大人数</t>
+  </si>
+  <si>
+    <t>下注筹码</t>
+  </si>
+  <si>
+    <t>入座需要金币</t>
+  </si>
+  <si>
+    <t>押注比例</t>
+  </si>
+  <si>
+    <t>税率</t>
+  </si>
+  <si>
+    <t>座位数</t>
+  </si>
+  <si>
+    <t>未压住踢出轮数</t>
+  </si>
+  <si>
+    <t>下注时间</t>
+  </si>
+  <si>
+    <t>自动确认时间</t>
+  </si>
+  <si>
+    <r>
+      <t>服务器发牌结算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等待超时总时长</t>
+    </r>
+  </si>
+  <si>
+    <t>最大在庄回合数</t>
+  </si>
+  <si>
+    <t>最小在庄金币</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -283,6 +352,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -316,7 +391,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +410,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,25 +755,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="4"/>
-    <col min="5" max="6" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" style="4" customWidth="1"/>
-    <col min="17" max="19" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.296875" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="39.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -854,6 +942,52 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7">

--- a/docs/excel/THundredWar.xlsx
+++ b/docs/excel/THundredWar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="165" windowWidth="27915" windowHeight="12315" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="HundredWar" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BankerGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +177,6 @@
   </si>
   <si>
     <t>BankerRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaxRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,6 +298,18 @@
   </si>
   <si>
     <t>最小在庄金币</t>
+  </si>
+  <si>
+    <t>Bet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaxRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -806,55 +810,55 @@
         <v>39</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -886,13 +890,13 @@
         <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>17</v>
@@ -935,7 +939,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -943,50 +947,50 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">

--- a/docs/excel/THundredWar.xlsx
+++ b/docs/excel/THundredWar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -124,10 +124,6 @@
       </rPr>
       <t>富豪场</t>
     </r>
-  </si>
-  <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>100;1000;10000;100000;1000000</t>
@@ -309,6 +305,14 @@
   </si>
   <si>
     <t>等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,73 +796,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -875,28 +879,28 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>17</v>
@@ -920,7 +924,7 @@
         <v>17</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>18</v>
@@ -939,7 +943,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -947,50 +951,50 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -1013,7 +1017,7 @@
         <v>300</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
         <v>200000000</v>
@@ -1084,7 +1088,7 @@
         <v>300</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>500000000</v>
@@ -2356,7 +2360,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/THundredWar.xlsx
+++ b/docs/excel/THundredWar.xlsx
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O5" s="7">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7">
         <v>2</v>
@@ -1109,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O6" s="7">
         <v>15</v>
@@ -1118,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R6" s="7">
         <v>2</v>
